--- a/Tracking Orders 2026.xlsx
+++ b/Tracking Orders 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreslinero/Desktop/Full Time Dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB86322-270A-1D4A-AC06-81ECBFCBD9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8CA647D-496E-8946-807E-BB68D88AECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="18440" xr2:uid="{D3E5D723-D44E-A84B-A306-F7997CF7541B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="344">
   <si>
     <t>Today</t>
   </si>
@@ -487,6 +487,9 @@
     <t>W-139798</t>
   </si>
   <si>
+    <t>121 Nassau St</t>
+  </si>
+  <si>
     <t>Schnell Contracting</t>
   </si>
   <si>
@@ -760,9 +763,6 @@
     <t>WladimIR</t>
   </si>
   <si>
-    <t xml:space="preserve">MetRO FIRe ContROl </t>
-  </si>
-  <si>
     <t>Miguel ANaNstacio</t>
   </si>
   <si>
@@ -844,15 +844,9 @@
     <t>W-140146</t>
   </si>
   <si>
-    <t>W-140162</t>
-  </si>
-  <si>
     <t>Luis</t>
   </si>
   <si>
-    <t>W-140167</t>
-  </si>
-  <si>
     <t>14 Lecount Pl</t>
   </si>
   <si>
@@ -935,6 +929,150 @@
   </si>
   <si>
     <t>420 E 54th St</t>
+  </si>
+  <si>
+    <t>W-140253</t>
+  </si>
+  <si>
+    <t>49 Crown St</t>
+  </si>
+  <si>
+    <t>W-140265</t>
+  </si>
+  <si>
+    <t>W-140263</t>
+  </si>
+  <si>
+    <t>Internal Chanche</t>
+  </si>
+  <si>
+    <t>W-140270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacobo </t>
+  </si>
+  <si>
+    <t>W-140279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preserv Building Restoration </t>
+  </si>
+  <si>
+    <t>69 Murray St</t>
+  </si>
+  <si>
+    <t>W-140303</t>
+  </si>
+  <si>
+    <t>56-10 Grand Ave</t>
+  </si>
+  <si>
+    <t>World Class Demolition Company</t>
+  </si>
+  <si>
+    <t>W-140308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xinos Construction Corp </t>
+  </si>
+  <si>
+    <t>33 Bowery</t>
+  </si>
+  <si>
+    <t>W-140317</t>
+  </si>
+  <si>
+    <t>Edge Industries Inc</t>
+  </si>
+  <si>
+    <t>22 Hardenburg ave</t>
+  </si>
+  <si>
+    <t>W-140318</t>
+  </si>
+  <si>
+    <t>W-140320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 Bethune  St </t>
+  </si>
+  <si>
+    <t>Metreo Fire Control</t>
+  </si>
+  <si>
+    <t>W-140261 (ROF)</t>
+  </si>
+  <si>
+    <t>Lions Group NYC</t>
+  </si>
+  <si>
+    <t>Tribute Restoration ,Inc</t>
+  </si>
+  <si>
+    <t>175 W 95th St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM &amp; Associates Construction Management </t>
+  </si>
+  <si>
+    <t>262 5th Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Construction Services </t>
+  </si>
+  <si>
+    <t>52 William St</t>
+  </si>
+  <si>
+    <t>340 E 29th St</t>
+  </si>
+  <si>
+    <t>W-140378</t>
+  </si>
+  <si>
+    <t>W-140369</t>
+  </si>
+  <si>
+    <t>W-140373</t>
+  </si>
+  <si>
+    <t>W-140380</t>
+  </si>
+  <si>
+    <t>Key Restoration Corporation</t>
+  </si>
+  <si>
+    <t>815 W 181st St</t>
+  </si>
+  <si>
+    <t>W-140383 (ROF)</t>
+  </si>
+  <si>
+    <t>POFI Construction Corp``</t>
+  </si>
+  <si>
+    <t>900 Palmer Rd</t>
+  </si>
+  <si>
+    <t>W-140387</t>
+  </si>
+  <si>
+    <t>W-140391</t>
+  </si>
+  <si>
+    <t>530 Broadway</t>
+  </si>
+  <si>
+    <t>W-140393</t>
+  </si>
+  <si>
+    <t>W-140397</t>
+  </si>
+  <si>
+    <t>288 East 88th st</t>
+  </si>
+  <si>
+    <t>W-134563</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,104 +1413,20 @@
     <xf numFmtId="18" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE6C2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE6C2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <fill>
         <patternFill>
@@ -1430,42 +1484,17 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1485,6 +1514,189 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -1493,28 +1705,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1631,6 +1826,282 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC59814"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF878FE9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6C2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF878FE9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC59814"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF878FE9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC59814"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF878FE9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC59814"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1668,15 +2139,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFE6C2DA"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1687,13 +2150,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2050,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACA3883-E6E5-154E-996C-DD571A286431}">
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L119" sqref="L119"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2076,19 +2532,19 @@
   <sheetData>
     <row r="1" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>0</v>
@@ -2123,7 +2579,7 @@
         <v>18465</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2136,7 +2592,7 @@
       </c>
       <c r="F2" s="2">
         <f t="shared" ref="F2:F22" ca="1" si="0">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G2" s="2">
         <v>46024</v>
@@ -2163,7 +2619,7 @@
         <v>18244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1">
         <v>11746</v>
@@ -2176,7 +2632,7 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G3" s="2">
         <v>46024</v>
@@ -2203,20 +2659,20 @@
         <v>18437</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G4" s="2">
         <v>46024</v>
@@ -2243,20 +2699,20 @@
         <v>18545</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1">
         <v>11955</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G5" s="2">
         <v>46024</v>
@@ -2283,7 +2739,7 @@
         <v>18539</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -2296,7 +2752,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G6" s="2">
         <v>46024</v>
@@ -2323,7 +2779,7 @@
         <v>18544</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C7" s="1">
         <v>11961</v>
@@ -2336,7 +2792,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G7" s="2">
         <v>46024</v>
@@ -2363,7 +2819,7 @@
         <v>18546</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
@@ -2376,7 +2832,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G8" s="2">
         <v>46024</v>
@@ -2403,7 +2859,7 @@
         <v>18539</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>25</v>
@@ -2416,7 +2872,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G9" s="2">
         <v>46024</v>
@@ -2443,7 +2899,7 @@
         <v>16342</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
@@ -2456,7 +2912,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G10" s="2">
         <v>46024</v>
@@ -2481,7 +2937,7 @@
         <v>18550</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -2494,7 +2950,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G11" s="2">
         <v>46024</v>
@@ -2521,20 +2977,20 @@
         <v>18558</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G12" s="2">
         <v>46028</v>
@@ -2561,7 +3017,7 @@
         <v>18552</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>42</v>
@@ -2570,11 +3026,11 @@
         <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G13" s="2">
         <v>46028</v>
@@ -2601,7 +3057,7 @@
         <v>18553</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
@@ -2610,11 +3066,11 @@
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G14" s="2">
         <v>46028</v>
@@ -2641,20 +3097,20 @@
         <v>18437</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G15" s="2">
         <v>46028</v>
@@ -2681,20 +3137,20 @@
         <v>18569</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G16" s="2">
         <v>46028</v>
@@ -2721,7 +3177,7 @@
         <v>18568</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
@@ -2734,7 +3190,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G17" s="2">
         <v>46028</v>
@@ -2761,7 +3217,7 @@
         <v>10888</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>43</v>
@@ -2770,11 +3226,11 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G18" s="2">
         <v>46028</v>
@@ -2801,7 +3257,7 @@
         <v>6196</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -2810,11 +3266,11 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G19" s="2">
         <v>46028</v>
@@ -2841,7 +3297,7 @@
         <v>18567</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" s="1">
         <v>11979</v>
@@ -2850,11 +3306,11 @@
         <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F20" s="2">
         <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G20" s="2">
         <v>46028</v>
@@ -2881,7 +3337,7 @@
         <v>18575</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="1">
         <v>11984</v>
@@ -2894,7 +3350,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G21" s="2">
         <v>46028</v>
@@ -2919,7 +3375,7 @@
         <v>18576</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="1">
         <v>11985</v>
@@ -2932,7 +3388,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G22" s="2">
         <v>46028</v>
@@ -2957,7 +3413,7 @@
         <v>18552</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
@@ -2966,11 +3422,11 @@
         <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ref="F23:F27" ca="1" si="2">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G23" s="2">
         <v>46028</v>
@@ -2995,7 +3451,7 @@
         <v>18584</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
@@ -3008,7 +3464,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G24" s="2">
         <v>46028</v>
@@ -3033,7 +3489,7 @@
         <v>6196</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>54</v>
@@ -3042,11 +3498,11 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G25" s="2">
         <v>46028</v>
@@ -3073,7 +3529,7 @@
         <v>16741</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>55</v>
@@ -3082,11 +3538,11 @@
         <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G26" s="2">
         <v>46028</v>
@@ -3113,7 +3569,7 @@
         <v>18586</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C27" s="1">
         <v>12020</v>
@@ -3122,11 +3578,11 @@
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G27" s="2">
         <v>46028</v>
@@ -3153,7 +3609,7 @@
         <v>18580</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>56</v>
@@ -3166,7 +3622,7 @@
       </c>
       <c r="F28" s="2">
         <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G28" s="2">
         <v>46029</v>
@@ -3193,7 +3649,7 @@
         <v>18580</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
@@ -3206,7 +3662,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" ref="F29:F30" ca="1" si="7">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G29" s="2">
         <v>46030</v>
@@ -3233,7 +3689,7 @@
         <v>18581</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1">
         <v>12024</v>
@@ -3246,7 +3702,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G30" s="2">
         <v>46029</v>
@@ -3273,7 +3729,7 @@
         <v>18512</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>58</v>
@@ -3282,11 +3738,11 @@
         <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F31" s="2">
         <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G31" s="2">
         <v>46028</v>
@@ -3311,7 +3767,7 @@
         <v>18582</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>62</v>
@@ -3324,7 +3780,7 @@
       </c>
       <c r="F32" s="2">
         <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G32" s="2">
         <v>46028</v>
@@ -3351,20 +3807,20 @@
         <v>17348</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" ref="F33:F34" ca="1" si="9">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G33" s="2">
         <v>46028</v>
@@ -3391,20 +3847,20 @@
         <v>18437</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G34" s="2">
         <v>46028</v>
@@ -3431,7 +3887,7 @@
         <v>17629</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>67</v>
@@ -3444,7 +3900,7 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F51" ca="1" si="11">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G35" s="2">
         <v>46028</v>
@@ -3459,7 +3915,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>71</v>
@@ -3471,7 +3927,7 @@
         <v>17629</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>68</v>
@@ -3484,7 +3940,7 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G36" s="2">
         <v>46028</v>
@@ -3511,20 +3967,20 @@
         <v>18437</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G37" s="2">
         <v>46028</v>
@@ -3551,7 +4007,7 @@
         <v>18580</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>74</v>
@@ -3564,7 +4020,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G38" s="2">
         <v>46029</v>
@@ -3591,7 +4047,7 @@
         <v>17165</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>76</v>
@@ -3604,7 +4060,7 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G39" s="2">
         <v>46029</v>
@@ -3619,7 +4075,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M39" s="19"/>
       <c r="N39" s="20"/>
@@ -3629,7 +4085,7 @@
         <v>17165</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>77</v>
@@ -3642,7 +4098,7 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G40" s="2">
         <v>46029</v>
@@ -3667,7 +4123,7 @@
         <v>18618</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>78</v>
@@ -3680,7 +4136,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G41" s="2">
         <v>46029</v>
@@ -3705,7 +4161,7 @@
         <v>18619</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>81</v>
@@ -3718,7 +4174,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G42" s="2">
         <v>46029</v>
@@ -3743,20 +4199,20 @@
         <v>18437</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G43" s="2">
         <v>46029</v>
@@ -3781,20 +4237,20 @@
         <v>18437</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G44" s="2">
         <v>46029</v>
@@ -3819,7 +4275,7 @@
         <v>18580</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>88</v>
@@ -3832,7 +4288,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G45" s="2">
         <v>46029</v>
@@ -3857,7 +4313,7 @@
         <v>18635</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C46" s="1">
         <v>12053</v>
@@ -3870,7 +4326,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G46" s="2">
         <v>46029</v>
@@ -3895,7 +4351,7 @@
         <v>18636</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>89</v>
@@ -3908,7 +4364,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G47" s="2">
         <v>46029</v>
@@ -3933,20 +4389,20 @@
         <v>7645</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G48" s="2">
         <v>46029</v>
@@ -3971,20 +4427,20 @@
         <v>7645</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G49" s="2">
         <v>46029</v>
@@ -3999,7 +4455,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M49" s="19"/>
       <c r="N49" s="20"/>
@@ -4009,7 +4465,7 @@
         <v>12055</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C50" s="1">
         <v>12055</v>
@@ -4022,7 +4478,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G50" s="2">
         <v>46029</v>
@@ -4047,7 +4503,7 @@
         <v>18637</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>97</v>
@@ -4060,7 +4516,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G51" s="2">
         <v>46029</v>
@@ -4085,7 +4541,7 @@
         <v>18311</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>99</v>
@@ -4098,7 +4554,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" ref="F52:F100" ca="1" si="13">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G52" s="2">
         <v>46029</v>
@@ -4123,20 +4579,20 @@
         <v>18645</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G53" s="2">
         <v>46029</v>
@@ -4161,7 +4617,7 @@
         <v>18512</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>102</v>
@@ -4170,11 +4626,11 @@
         <v>27</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G54" s="2">
         <v>46029</v>
@@ -4203,7 +4659,7 @@
         <v>16059</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>103</v>
@@ -4216,7 +4672,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G55" s="2">
         <v>46029</v>
@@ -4245,20 +4701,20 @@
         <v>18437</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G56" s="2">
         <v>46029</v>
@@ -4276,7 +4732,7 @@
         <v>51</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N56" s="22">
         <v>0.34027777777777779</v>
@@ -4287,20 +4743,20 @@
         <v>18657</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G57" s="2">
         <v>46029</v>
@@ -4325,7 +4781,7 @@
         <v>18311</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>108</v>
@@ -4338,7 +4794,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G58" s="2">
         <v>46029</v>
@@ -4367,7 +4823,7 @@
         <v>17232</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>110</v>
@@ -4380,7 +4836,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G59" s="2">
         <v>46029</v>
@@ -4409,7 +4865,7 @@
         <v>17618</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>113</v>
@@ -4422,7 +4878,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G60" s="2">
         <v>46029</v>
@@ -4451,20 +4907,20 @@
         <v>18437</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>115</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G61" s="8">
         <v>46034</v>
@@ -4489,7 +4945,7 @@
         <v>18662</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>116</v>
@@ -4502,7 +4958,7 @@
       </c>
       <c r="F62" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G62" s="8">
         <v>46034</v>
@@ -4527,20 +4983,20 @@
         <v>18173</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G63" s="8">
         <v>46034</v>
@@ -4565,7 +5021,7 @@
         <v>18666</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>121</v>
@@ -4578,7 +5034,7 @@
       </c>
       <c r="F64" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G64" s="8">
         <v>46034</v>
@@ -4607,7 +5063,7 @@
         <v>16457</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>123</v>
@@ -4620,7 +5076,7 @@
       </c>
       <c r="F65" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G65" s="8">
         <v>46034</v>
@@ -4649,7 +5105,7 @@
         <v>18667</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>127</v>
@@ -4662,7 +5118,7 @@
       </c>
       <c r="F66" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G66" s="8">
         <v>46034</v>
@@ -4691,7 +5147,7 @@
         <v>18659</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>125</v>
@@ -4704,7 +5160,7 @@
       </c>
       <c r="F67" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G67" s="8">
         <v>46034</v>
@@ -4731,20 +5187,20 @@
         <v>18670</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G68" s="8">
         <v>46034</v>
@@ -4762,7 +5218,7 @@
         <v>50</v>
       </c>
       <c r="M68" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N68" s="23"/>
     </row>
@@ -4771,20 +5227,20 @@
         <v>18671</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C69" s="1">
         <v>12086</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F69" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G69" s="8">
         <v>46034</v>
@@ -4809,20 +5265,20 @@
         <v>18341</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F70" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G70" s="8">
         <v>46034</v>
@@ -4847,7 +5303,7 @@
         <v>18672</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>132</v>
@@ -4860,7 +5316,7 @@
       </c>
       <c r="F71" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G71" s="8">
         <v>46034</v>
@@ -4885,7 +5341,7 @@
         <v>16110</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>134</v>
@@ -4898,7 +5354,7 @@
       </c>
       <c r="F72" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G72" s="8">
         <v>46034</v>
@@ -4928,7 +5384,7 @@
         <v>247</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -4938,7 +5394,7 @@
       </c>
       <c r="F73" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G73" s="8">
         <v>46034</v>
@@ -4953,7 +5409,7 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M73" s="19" t="s">
         <v>136</v>
@@ -4965,7 +5421,7 @@
         <v>18675</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C74" s="1">
         <v>12087</v>
@@ -4978,7 +5434,7 @@
       </c>
       <c r="F74" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G74" s="8">
         <v>46034</v>
@@ -5005,7 +5461,7 @@
         <v>15758</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>140</v>
@@ -5018,7 +5474,7 @@
       </c>
       <c r="F75" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G75" s="8">
         <v>46034</v>
@@ -5045,7 +5501,7 @@
         <v>18645</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>142</v>
@@ -5058,7 +5514,7 @@
       </c>
       <c r="F76" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G76" s="8">
         <v>46034</v>
@@ -5085,7 +5541,7 @@
         <v>16204</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>145</v>
@@ -5098,7 +5554,7 @@
       </c>
       <c r="F77" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G77" s="8">
         <v>46034</v>
@@ -5123,7 +5579,7 @@
         <v>18118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>147</v>
@@ -5136,7 +5592,7 @@
       </c>
       <c r="F78" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G78" s="8">
         <v>46034</v>
@@ -5161,20 +5617,20 @@
         <v>18682</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1">
         <v>12091</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F79" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G79" s="8">
         <v>46034</v>
@@ -5199,7 +5655,7 @@
         <v>18683</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C80" s="1">
         <v>12092</v>
@@ -5208,11 +5664,11 @@
         <v>27</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F80" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G80" s="8">
         <v>46034</v>
@@ -5229,7 +5685,7 @@
         <v>ACTION NEEDED</v>
       </c>
       <c r="K80" s="25" t="str">
-        <f>IF(F189&gt;=E189,"On Time","Order Still Needed?")</f>
+        <f>IF(F186&gt;=E186,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L80" s="19"/>
@@ -5241,20 +5697,20 @@
         <v>17440</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F81" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G81" s="8">
         <v>46034</v>
@@ -5279,20 +5735,20 @@
         <v>18692</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C82" s="1">
         <v>12103</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F82" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G82" s="8">
         <v>46034</v>
@@ -5317,20 +5773,20 @@
         <v>18693</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C83" s="1">
         <v>12102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F83" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G83" s="8">
         <v>46034</v>
@@ -5355,20 +5811,20 @@
         <v>17000</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F84" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G84" s="8">
         <v>46034</v>
@@ -5393,10 +5849,10 @@
         <v>16204</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>27</v>
@@ -5406,7 +5862,7 @@
       </c>
       <c r="F85" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G85" s="8">
         <v>46034</v>
@@ -5431,20 +5887,20 @@
         <v>11625</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F86" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G86" s="8">
         <v>46034</v>
@@ -5469,7 +5925,7 @@
         <v>17943</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C87" s="1">
         <v>11625</v>
@@ -5478,11 +5934,11 @@
         <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F87" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G87" s="8">
         <v>46034</v>
@@ -5510,17 +5966,17 @@
         <v>247</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F88" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G88" s="8">
         <v>46034</v>
@@ -5535,7 +5991,7 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M88" s="19"/>
       <c r="N88" s="23"/>
@@ -5548,17 +6004,17 @@
         <v>247</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G89" s="8">
         <v>46034</v>
@@ -5573,7 +6029,7 @@
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M89" s="19"/>
       <c r="N89" s="23"/>
@@ -5583,20 +6039,20 @@
         <v>18705</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C90" s="1">
         <v>12112</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F90" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G90" s="8">
         <v>46034</v>
@@ -5621,20 +6077,20 @@
         <v>17520</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F91" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G91" s="8">
         <v>46034</v>
@@ -5659,10 +6115,10 @@
         <v>17784</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>243</v>
@@ -5672,7 +6128,7 @@
       </c>
       <c r="F92" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G92" s="8">
         <v>46034</v>
@@ -5697,20 +6153,20 @@
         <v>18707</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F93" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G93" s="8">
         <v>46034</v>
@@ -5735,10 +6191,10 @@
         <v>18546</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>8</v>
@@ -5748,7 +6204,7 @@
       </c>
       <c r="F94" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G94" s="8">
         <v>46034</v>
@@ -5773,7 +6229,7 @@
         <v>18696</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C95" s="1">
         <v>12114</v>
@@ -5786,7 +6242,7 @@
       </c>
       <c r="F95" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G95" s="8">
         <v>46034</v>
@@ -5811,20 +6267,20 @@
         <v>18709</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F96" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G96" s="8">
         <v>46034</v>
@@ -5849,10 +6305,10 @@
         <v>16059</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>27</v>
@@ -5862,7 +6318,7 @@
       </c>
       <c r="F97" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G97" s="8">
         <v>46034</v>
@@ -5887,20 +6343,20 @@
         <v>18725</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F98" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G98" s="8">
         <v>46041</v>
@@ -5925,20 +6381,20 @@
         <v>18677</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F99" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G99" s="8">
         <v>46041</v>
@@ -5963,20 +6419,20 @@
         <v>15731</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C100" s="1">
         <v>12139</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F100" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G100" s="8">
         <v>46041</v>
@@ -6001,7 +6457,7 @@
         <v>18739</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C101" s="1">
         <v>12144</v>
@@ -6010,11 +6466,11 @@
         <v>69</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F101" s="12">
         <f t="shared" ref="F101:F132" ca="1" si="18">TODAY()</f>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G101" s="12">
         <v>46041</v>
@@ -6043,20 +6499,20 @@
         <v>15198</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F102" s="12">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G102" s="12">
         <v>46041</v>
@@ -6081,20 +6537,20 @@
         <v>18740</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F103" s="12">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G103" s="12">
         <v>46041</v>
@@ -6119,7 +6575,7 @@
         <v>18745</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C104" s="1">
         <v>12147</v>
@@ -6128,11 +6584,11 @@
         <v>117</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F104" s="12">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G104" s="12">
         <v>46041</v>
@@ -6159,20 +6615,20 @@
         <v>18259</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F105" s="12">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G105" s="12">
         <v>46041</v>
@@ -6199,20 +6655,20 @@
         <v>18259</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F106" s="12">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G106" s="12">
         <v>46041</v>
@@ -6237,20 +6693,20 @@
         <v>18512</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F107" s="12">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G107" s="12">
         <v>46041</v>
@@ -6275,7 +6731,7 @@
         <v>18759</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C108" s="1">
         <v>12161</v>
@@ -6284,11 +6740,11 @@
         <v>27</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G108" s="2">
         <v>46041</v>
@@ -6313,20 +6769,20 @@
         <v>18760</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F109" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G109" s="2">
         <v>46041</v>
@@ -6351,10 +6807,10 @@
         <v>18123</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D110" s="15" t="s">
         <v>8</v>
@@ -6364,7 +6820,7 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G110" s="2">
         <v>46041</v>
@@ -6382,7 +6838,7 @@
         <v>51</v>
       </c>
       <c r="M110" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N110" s="22">
         <v>0.45277777777777778</v>
@@ -6393,20 +6849,20 @@
         <v>18768</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G111" s="2">
         <v>46041</v>
@@ -6424,7 +6880,7 @@
         <v>50</v>
       </c>
       <c r="M111" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N111" s="22">
         <v>0.45277777777777778</v>
@@ -6435,20 +6891,20 @@
         <v>18765</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G112" s="2">
         <v>46041</v>
@@ -6466,7 +6922,7 @@
         <v>50</v>
       </c>
       <c r="M112" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N112" s="22">
         <v>0.45277777777777778</v>
@@ -6477,20 +6933,20 @@
         <v>18770</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G113" s="2">
         <v>46041</v>
@@ -6515,20 +6971,20 @@
         <v>18770</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G114" s="2">
         <v>46041</v>
@@ -6553,20 +7009,20 @@
         <v>18338</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G115" s="2">
         <v>46041</v>
@@ -6591,20 +7047,20 @@
         <v>18734</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G116" s="2">
         <v>46041</v>
@@ -6621,7 +7077,7 @@
         <v>ACTION NEEDED</v>
       </c>
       <c r="K116" s="19" t="str">
-        <f>IF(F226&gt;=E226,"On Time","Order Still Needed?")</f>
+        <f>IF(F223&gt;=E223,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L116" s="19"/>
@@ -6633,20 +7089,20 @@
         <v>15835</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G117" s="2">
         <v>46041</v>
@@ -6671,10 +7127,10 @@
         <v>16204</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>27</v>
@@ -6684,7 +7140,7 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G118" s="2">
         <v>46041</v>
@@ -6696,15 +7152,11 @@
       <c r="I118" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J118" s="19" t="str">
-        <f t="shared" ref="J118:J141" ca="1" si="20">IF(TODAY()&gt;H118, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K118" s="19" t="str">
-        <f t="shared" ref="K118:K141" si="21">IF(F228&gt;=E228,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M118" s="19"/>
       <c r="N118" s="22"/>
     </row>
@@ -6713,20 +7165,20 @@
         <v>18137</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>205</v>
+        <v>212</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G119" s="2">
         <v>46041</v>
@@ -6739,11 +7191,11 @@
         <v>38</v>
       </c>
       <c r="J119" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="J119" ca="1" si="20">IF(TODAY()&gt;H119, "ACTION NEEDED", "NO ACTION NEEDED")</f>
         <v>ACTION NEEDED</v>
       </c>
       <c r="K119" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K119" si="21">IF(F226&gt;=E226,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L119" s="19"/>
@@ -6755,20 +7207,20 @@
         <v>18789</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C120" s="14">
         <v>12181</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>250</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G120" s="2">
         <v>46041</v>
@@ -6780,15 +7232,11 @@
       <c r="I120" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J120" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K120" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M120" s="19"/>
       <c r="N120" s="22"/>
     </row>
@@ -6797,20 +7245,20 @@
         <v>18788</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E121" s="14" t="s">
         <v>250</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G121" s="2">
         <v>46041</v>
@@ -6822,15 +7270,11 @@
       <c r="I121" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J121" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K121" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M121" s="19"/>
       <c r="N121" s="22"/>
     </row>
@@ -6839,20 +7283,20 @@
         <v>18794</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C122" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="D122" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E122" s="14" t="s">
         <v>130</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G122" s="2">
         <v>46041</v>
@@ -6864,15 +7308,11 @@
       <c r="I122" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J122" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K122" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M122" s="19"/>
       <c r="N122" s="22"/>
     </row>
@@ -6881,20 +7321,20 @@
         <v>18797</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C123" s="13">
         <v>12192</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G123" s="2">
         <v>46041</v>
@@ -6906,15 +7346,11 @@
       <c r="I123" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K123" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M123" s="19"/>
       <c r="N123" s="22"/>
     </row>
@@ -6923,20 +7359,20 @@
         <v>17348</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D124" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="30" t="s">
         <v>234</v>
-      </c>
-      <c r="E124" s="30" t="s">
-        <v>233</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G124" s="2">
         <v>46041</v>
@@ -6948,15 +7384,11 @@
       <c r="I124" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K124" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M124" s="19"/>
       <c r="N124" s="22"/>
     </row>
@@ -6965,20 +7397,20 @@
         <v>17520</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E125" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G125" s="2">
         <v>46041</v>
@@ -6990,15 +7422,11 @@
       <c r="I125" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>ACTION NEEDED</v>
-      </c>
-      <c r="K125" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M125" s="19"/>
       <c r="N125" s="22"/>
     </row>
@@ -7007,7 +7435,7 @@
         <v>18809</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C126" s="14">
         <v>12198</v>
@@ -7016,11 +7444,11 @@
         <v>256</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G126" s="2">
         <v>46041</v>
@@ -7033,11 +7461,11 @@
         <v>17</v>
       </c>
       <c r="J126" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ref="J126:J140" ca="1" si="22">IF(TODAY()&gt;H126, "ACTION NEEDED", "NO ACTION NEEDED")</f>
         <v>ACTION NEEDED</v>
       </c>
       <c r="K126" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(F233&gt;=E233,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L126" s="19"/>
@@ -7049,7 +7477,7 @@
         <v>18808</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C127" s="14" t="s">
         <v>251</v>
@@ -7062,7 +7490,7 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G127" s="2">
         <v>46051</v>
@@ -7074,15 +7502,11 @@
       <c r="I127" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J127" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K127" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M127" s="19"/>
       <c r="N127" s="22"/>
     </row>
@@ -7104,7 +7528,7 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G128" s="2">
         <v>46051</v>
@@ -7116,15 +7540,11 @@
       <c r="I128" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J128" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K128" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="M128" s="19"/>
       <c r="N128" s="22"/>
     </row>
@@ -7133,7 +7553,7 @@
         <v>15402</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>255</v>
@@ -7146,7 +7566,7 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G129" s="2">
         <v>46051</v>
@@ -7158,15 +7578,11 @@
       <c r="I129" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J129" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K129" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M129" s="19"/>
       <c r="N129" s="22"/>
     </row>
@@ -7175,7 +7591,7 @@
         <v>18813</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C130" s="14" t="s">
         <v>257</v>
@@ -7188,7 +7604,7 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G130" s="2">
         <v>46051</v>
@@ -7200,15 +7616,11 @@
       <c r="I130" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J130" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K130" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L130" s="1"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M130" s="1"/>
       <c r="N130" s="14"/>
     </row>
@@ -7217,7 +7629,7 @@
         <v>18792</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C131" s="14">
         <v>12202</v>
@@ -7230,7 +7642,7 @@
       </c>
       <c r="F131" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G131" s="2">
         <v>46051</v>
@@ -7242,15 +7654,11 @@
       <c r="I131" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J131" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K131" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L131" s="1"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M131" s="1"/>
       <c r="N131" s="14"/>
     </row>
@@ -7268,11 +7676,11 @@
         <v>261</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>46057</v>
+        <v>46065</v>
       </c>
       <c r="G132" s="2">
         <v>46051</v>
@@ -7282,17 +7690,13 @@
         <v>46061</v>
       </c>
       <c r="I132" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J132" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K132" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L132" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="M132" s="1"/>
       <c r="N132" s="14"/>
     </row>
@@ -7310,31 +7714,27 @@
         <v>261</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F154" ca="1" si="22">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ref="F133:F154" ca="1" si="23">TODAY()</f>
+        <v>46065</v>
       </c>
       <c r="G133" s="2">
         <v>46051</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H164" si="23">G133 + 10</f>
+        <f t="shared" ref="H133:H153" si="24">G133 + 10</f>
         <v>46061</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J133" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K133" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L133" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="M133" s="1"/>
       <c r="N133" s="14"/>
     </row>
@@ -7355,28 +7755,24 @@
         <v>90</v>
       </c>
       <c r="F134" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G134" s="2">
         <v>46051</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J134" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K134" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L134" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="M134" s="1"/>
       <c r="N134" s="14"/>
     </row>
@@ -7397,28 +7793,24 @@
         <v>90</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G135" s="2">
         <v>46051</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="J135" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K135" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L135" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19" t="s">
+        <v>204</v>
+      </c>
       <c r="M135" s="1"/>
       <c r="N135" s="14"/>
     </row>
@@ -7427,7 +7819,7 @@
         <v>17348</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>264</v>
@@ -7436,31 +7828,27 @@
         <v>46</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F136" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G136" s="2">
         <v>46051</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J136" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K136" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L136" s="1"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M136" s="1"/>
       <c r="N136" s="14"/>
     </row>
@@ -7469,7 +7857,7 @@
         <v>14074</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C137" s="14" t="s">
         <v>265</v>
@@ -7478,28 +7866,28 @@
         <v>261</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F137" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G137" s="2">
         <v>46051</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I137" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J137" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>ACTION NEEDED</v>
       </c>
       <c r="K137" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(F244&gt;=E244,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L137" s="1"/>
@@ -7511,7 +7899,7 @@
         <v>14229</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C138" s="14" t="s">
         <v>266</v>
@@ -7520,28 +7908,28 @@
         <v>261</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F138" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G138" s="2">
         <v>46051</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I138" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J138" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>ACTION NEEDED</v>
       </c>
       <c r="K138" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(F245&gt;=E245,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L138" s="1"/>
@@ -7553,10 +7941,10 @@
         <v>14075</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>267</v>
+        <v>212</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>261</v>
@@ -7565,25 +7953,25 @@
         <v>90</v>
       </c>
       <c r="F139" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G139" s="2">
         <v>46051</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I139" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J139" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>ACTION NEEDED</v>
       </c>
       <c r="K139" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(F246&gt;=E246,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L139" s="1"/>
@@ -7595,10 +7983,10 @@
         <v>14228</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>261</v>
@@ -7607,25 +7995,25 @@
         <v>90</v>
       </c>
       <c r="F140" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G140" s="2">
         <v>46051</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J140" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
+        <f t="shared" ca="1" si="22"/>
+        <v>ACTION NEEDED</v>
       </c>
       <c r="K140" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(F247&gt;=E247,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L140" s="1"/>
@@ -7637,7 +8025,7 @@
         <v>18822</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C141" s="14">
         <v>12206</v>
@@ -7646,31 +8034,27 @@
         <v>261</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F141" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G141" s="2">
         <v>46051</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I141" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J141" s="19" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K141" s="19" t="str">
-        <f t="shared" si="21"/>
-        <v>On Time</v>
-      </c>
-      <c r="L141" s="1"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M141" s="1"/>
       <c r="N141" s="14"/>
     </row>
@@ -7679,26 +8063,26 @@
         <v>18823</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F142" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G142" s="2">
         <v>46051</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I142" s="7" t="s">
@@ -7719,40 +8103,36 @@
         <v>17520</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F143" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G143" s="2">
         <v>46051</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J143" s="19" t="str">
-        <f t="shared" ref="J143:J154" ca="1" si="24">IF(TODAY()&gt;H143, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K143" s="19" t="str">
-        <f t="shared" ref="K143:K154" si="25">IF(F253&gt;=E253,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L143" s="1"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M143" s="1"/>
       <c r="N143" s="14"/>
     </row>
@@ -7761,10 +8141,10 @@
         <v>18816</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>8</v>
@@ -7773,28 +8153,24 @@
         <v>135</v>
       </c>
       <c r="F144" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G144" s="2">
         <v>46051</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J144" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K144" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L144" s="1"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M144" s="1"/>
       <c r="N144" s="14"/>
     </row>
@@ -7803,7 +8179,7 @@
         <v>18836</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C145" s="14">
         <v>12213</v>
@@ -7815,28 +8191,24 @@
         <v>130</v>
       </c>
       <c r="F145" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G145" s="2">
         <v>46051</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J145" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K145" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L145" s="1"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M145" s="1"/>
       <c r="N145" s="14"/>
     </row>
@@ -7845,40 +8217,36 @@
         <v>17348</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F146" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G146" s="2">
         <v>46051</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I146" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J146" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K146" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L146" s="1"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M146" s="1"/>
       <c r="N146" s="14"/>
     </row>
@@ -7887,40 +8255,36 @@
         <v>18838</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G147" s="2">
         <v>46051</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I147" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J147" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K147" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L147" s="1"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M147" s="1"/>
       <c r="N147" s="14"/>
     </row>
@@ -7929,10 +8293,10 @@
         <v>18816</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>8</v>
@@ -7941,28 +8305,24 @@
         <v>135</v>
       </c>
       <c r="F148" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G148" s="2">
         <v>46051</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I148" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J148" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K148" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L148" s="1"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M148" s="1"/>
       <c r="N148" s="14"/>
     </row>
@@ -7971,205 +8331,189 @@
         <v>17520</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F149" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G149" s="2">
         <v>46051</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J149" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K149" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L149" s="1"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M149" s="1"/>
       <c r="N149" s="14"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="28">
-        <v>18832</v>
+        <v>17784</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C150" s="14">
-        <v>12214</v>
+      <c r="C150" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="14" t="s">
         <v>283</v>
       </c>
+      <c r="E150" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F150" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G150" s="2">
         <v>46051</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J150" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K150" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L150" s="1"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M150" s="1"/>
       <c r="N150" s="14"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="28">
-        <v>17784</v>
+        <v>18833</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C151" s="14" t="s">
-        <v>284</v>
+        <v>212</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>98</v>
+        <v>289</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="F151" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G151" s="2">
         <v>46051</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J151" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K151" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L151" s="1"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M151" s="1"/>
       <c r="N151" s="14"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="28">
-        <v>18833</v>
+        <v>18832</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>290</v>
+        <v>213</v>
+      </c>
+      <c r="C152" s="14">
+        <v>12217</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F152" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G152" s="2">
         <v>46051</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J152" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K152" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L152" s="1"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M152" s="1"/>
       <c r="N152" s="14"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="28">
-        <v>18832</v>
+        <v>12616</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C153" s="14">
-        <v>12217</v>
+      <c r="C153" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E153" s="14" t="s">
-        <v>283</v>
+      <c r="E153" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="F153" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G153" s="2">
         <v>46051</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>46061</v>
       </c>
       <c r="I153" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J153" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
+        <f t="shared" ref="J153" ca="1" si="25">IF(TODAY()&gt;H153, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
       </c>
       <c r="K153" s="19" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(F261&gt;=E261,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L153" s="1"/>
@@ -8177,136 +8521,122 @@
       <c r="N153" s="14"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A154" s="28">
-        <v>12616</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C154" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>294</v>
+      <c r="A154" s="38">
+        <v>18580</v>
+      </c>
+      <c r="B154" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="D154" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="F154" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>46057</v>
+        <f t="shared" ca="1" si="23"/>
+        <v>46065</v>
       </c>
       <c r="G154" s="2">
         <v>46051</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H154" si="26">G154 + 10</f>
         <v>46061</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J154" s="19" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K154" s="19" t="str">
-        <f t="shared" si="25"/>
-        <v>On Time</v>
-      </c>
-      <c r="L154" s="1"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M154" s="1"/>
       <c r="N154" s="14"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A155" s="28"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="14"/>
-      <c r="K155" s="14"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="14"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="14"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{5ACA3883-E6E5-154E-996C-DD571A286431}"/>
-  <conditionalFormatting sqref="C2:C60 C62:C121 N130:N156 C123:C1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="79"/>
+  <conditionalFormatting sqref="C2:C60 C62:C121 C123:C1048576 N130:N154">
+    <cfRule type="duplicateValues" dxfId="63" priority="146"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="36" priority="65" operator="containsText" text="ACTION NEEDED">
+    <cfRule type="containsText" dxfId="62" priority="117" operator="containsText" text="NO ACTION NEEDED">
+      <formula>NOT(ISERROR(SEARCH("NO ACTION NEEDED",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="118" operator="containsText" text="ACTION NEEDED">
       <formula>NOT(ISERROR(SEARCH("ACTION NEEDED",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="64" operator="containsText" text="NO ACTION NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NO ACTION NEEDED",J1)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J116:K125">
-    <cfRule type="cellIs" dxfId="34" priority="71" operator="equal">
-      <formula>"Maria"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="70" operator="equal">
+  <conditionalFormatting sqref="J116:K153">
+    <cfRule type="cellIs" dxfId="60" priority="123" operator="equal">
       <formula>"Patricia"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J126:K154">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
-      <formula>"Patricia"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="124" operator="equal">
       <formula>"Maria"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="30" priority="62" operator="containsText" text="Order Still Needed">
+    <cfRule type="containsText" dxfId="58" priority="115" operator="containsText" text="Order Still Needed">
       <formula>NOT(ISERROR(SEARCH("Order Still Needed",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="63" operator="containsText" text="On Time">
+    <cfRule type="containsText" dxfId="57" priority="116" operator="containsText" text="On Time">
       <formula>NOT(ISERROR(SEARCH("On Time",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L129 L157:L1048576">
-    <cfRule type="containsText" dxfId="28" priority="66" operator="containsText" text="RETURNS">
+  <conditionalFormatting sqref="L1:L136">
+    <cfRule type="containsText" dxfId="56" priority="27" operator="containsText" text="RETURNS">
       <formula>NOT(ISERROR(SEARCH("RETURNS",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="68" operator="containsText" text="Patricia">
+    <cfRule type="containsText" dxfId="55" priority="28" operator="containsText" text="Patricia">
       <formula>NOT(ISERROR(SEARCH("Patricia",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="Maria">
+    <cfRule type="containsText" dxfId="54" priority="29" operator="containsText" text="Maria">
       <formula>NOT(ISERROR(SEARCH("Maria",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L142">
-    <cfRule type="containsText" dxfId="25" priority="16" operator="containsText" text="Patricia">
-      <formula>NOT(ISERROR(SEARCH("Patricia",L142)))</formula>
+  <conditionalFormatting sqref="L141:L152">
+    <cfRule type="containsText" dxfId="53" priority="6" operator="containsText" text="RETURNS">
+      <formula>NOT(ISERROR(SEARCH("RETURNS",L141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Maria">
-      <formula>NOT(ISERROR(SEARCH("Maria",L142)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="Patricia">
+      <formula>NOT(ISERROR(SEARCH("Patricia",L141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="RETURNS">
-      <formula>NOT(ISERROR(SEARCH("RETURNS",L142)))</formula>
+    <cfRule type="containsText" dxfId="51" priority="8" operator="containsText" text="Maria">
+      <formula>NOT(ISERROR(SEARCH("Maria",L141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L155:L1048576">
+    <cfRule type="containsText" dxfId="50" priority="119" operator="containsText" text="RETURNS">
+      <formula>NOT(ISERROR(SEARCH("RETURNS",L155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="121" operator="containsText" text="Patricia">
+      <formula>NOT(ISERROR(SEARCH("Patricia",L155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="122" operator="containsText" text="Maria">
+      <formula>NOT(ISERROR(SEARCH("Maria",L155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J154:K154">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L154">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="RETURNS">
+      <formula>NOT(ISERROR(SEARCH("RETURNS",L154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Patricia">
+      <formula>NOT(ISERROR(SEARCH("Patricia",L154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Maria">
+      <formula>NOT(ISERROR(SEARCH("Maria",L154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8315,10 +8645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFC4BDB-D1B1-754E-9D2D-4AF183D21447}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8326,7 +8656,7 @@
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" customWidth="1"/>
@@ -8335,25 +8665,25 @@
     <col min="10" max="10" width="23.83203125" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>289</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>0</v>
@@ -8388,20 +8718,20 @@
         <v>18816</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="33">
         <v>12207</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F2" s="34">
-        <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ref="F2:F16" ca="1" si="0">TODAY()</f>
+        <v>46065</v>
       </c>
       <c r="G2" s="34">
         <v>46055</v>
@@ -8413,17 +8743,13 @@
       <c r="I2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="19" t="str">
-        <f ca="1">IF(TODAY()&gt;H2, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K2" s="19" t="str">
-        <f>IF(F112&gt;=E112,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L2" s="33"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M2" s="33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N2" s="35">
         <v>0.30208333333333331</v>
@@ -8434,40 +8760,36 @@
         <v>18816</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
       </c>
       <c r="G3" s="2">
         <v>46051</v>
       </c>
       <c r="H3" s="2">
-        <f>G3 + 10</f>
+        <f t="shared" ref="H3:H16" si="1">G3 + 10</f>
         <v>46061</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="19" t="str">
-        <f ca="1">IF(TODAY()&gt;H3, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K3" s="19" t="str">
-        <f>IF(F113&gt;=E113,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L3" s="1"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
@@ -8476,659 +8798,1343 @@
         <v>17520</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
       </c>
       <c r="G4" s="2">
         <v>46051</v>
       </c>
       <c r="H4" s="2">
-        <f>G4 + 10</f>
+        <f t="shared" si="1"/>
         <v>46061</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="19" t="str">
-        <f ca="1">IF(TODAY()&gt;H4, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f>IF(F114&gt;=E114,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L4" s="1"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
-        <v>18832</v>
+        <v>17784</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="1">
-        <v>12214</v>
+      <c r="C5" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
       </c>
       <c r="G5" s="2">
         <v>46051</v>
       </c>
       <c r="H5" s="2">
-        <f>G5 + 10</f>
+        <f t="shared" si="1"/>
         <v>46061</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="19" t="str">
-        <f ca="1">IF(TODAY()&gt;H5, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K5" s="19" t="str">
-        <f>IF(F115&gt;=E115,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L5" s="1"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
-        <v>17784</v>
+        <v>12616</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
       </c>
       <c r="G6" s="2">
         <v>46051</v>
       </c>
       <c r="H6" s="2">
-        <f>G6 + 10</f>
+        <f t="shared" si="1"/>
         <v>46061</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="19" t="str">
-        <f ca="1">IF(TODAY()&gt;H6, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
+        <f t="shared" ref="J6:J16" ca="1" si="2">IF(TODAY()&gt;H6, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
       </c>
       <c r="K6" s="19" t="str">
-        <f>IF(F116&gt;=E116,"On Time","Order Still Needed?")</f>
+        <f t="shared" ref="K6:K16" si="3">IF(F116&gt;=E116,"On Time","Order Still Needed?")</f>
         <v>On Time</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="36">
+        <v>0.38263888888888886</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
-        <v>12616</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>292</v>
+        <v>18847</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>294</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>295</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F7" ca="1" si="0">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
       </c>
       <c r="G7" s="2">
         <v>46051</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" ref="H7" si="1">G7 + 10</f>
+        <f t="shared" si="1"/>
         <v>46061</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="19" t="str">
-        <f t="shared" ref="J7" ca="1" si="2">IF(TODAY()&gt;H7, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K7" s="19" t="str">
-        <f t="shared" ref="K7" si="3">IF(F117&gt;=E117,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N7" s="36">
-        <v>0.38263888888888886</v>
-      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
-        <v>18847</v>
+      <c r="A8" s="28">
+        <v>18852</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>213</v>
+      </c>
+      <c r="C8" s="25">
+        <v>12220</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">TODAY()</f>
-        <v>46057</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
       </c>
       <c r="G8" s="2">
         <v>46051</v>
       </c>
       <c r="H8" s="2">
-        <f>G8 + 10</f>
+        <f t="shared" si="1"/>
         <v>46061</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="19" t="str">
-        <f ca="1">IF(TODAY()&gt;H8, "ACTION NEEDED", "NO ACTION NEEDED")</f>
-        <v>NO ACTION NEEDED</v>
-      </c>
-      <c r="K8" s="19" t="str">
-        <f>IF(F118&gt;=E118,"On Time","Order Still Needed?")</f>
-        <v>On Time</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="A9" s="28">
+        <v>18788</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G9" s="2">
+        <v>46051</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="A10" s="28">
+        <v>7093</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G10" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="N10" s="35">
+        <v>0.3611111111111111</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="A11" s="28">
+        <v>7091</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G11" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="N11" s="35">
+        <v>0.40277777777777801</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="A12" s="28">
+        <v>6787</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G12" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="N12" s="35">
+        <v>0.44444444444444398</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="A13" s="28">
+        <v>18118</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G13" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="A14" s="28">
+        <v>18776</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="25">
+        <v>12231</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G14" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="A15" s="28">
+        <v>18788</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G15" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="A16" s="28">
+        <v>18858</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="25">
+        <v>12237</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" ca="1" si="0"/>
+        <v>46065</v>
+      </c>
+      <c r="G16" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="1"/>
+        <v>46061</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K16" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>On Time</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="28">
+        <v>18866</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" ref="F17:F31" ca="1" si="4">TODAY()</f>
+        <v>46065</v>
+      </c>
+      <c r="G17" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" ref="H17" si="5">G17 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="28">
+        <v>18838</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G18" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" ref="H18" si="6">G18 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="A19" s="28">
+        <v>18875</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="25">
+        <v>12250</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G19" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" ref="H19" si="7">G19 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A20" s="28">
+        <v>18876</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G20" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" ref="H20" si="8">G20 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J20" s="19" t="str">
+        <f t="shared" ref="J20" ca="1" si="9">IF(TODAY()&gt;H20, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K20" s="19" t="str">
+        <f t="shared" ref="K20" si="10">IF(F130&gt;=E130,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="28">
+        <v>18873</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="25">
+        <v>12249</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G21" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" ref="H21" si="11">G21 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J21" s="19" t="str">
+        <f t="shared" ref="J21" ca="1" si="12">IF(TODAY()&gt;H21, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K21" s="19" t="str">
+        <f t="shared" ref="K21" si="13">IF(F131&gt;=E131,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="28">
+        <v>18833</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G22" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" ref="H22" si="14">G22 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J22" s="19" t="str">
+        <f t="shared" ref="J22" ca="1" si="15">IF(TODAY()&gt;H22, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K22" s="19" t="str">
+        <f t="shared" ref="K22" si="16">IF(F132&gt;=E132,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="28">
+        <v>16853</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G23" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" ref="H23" si="17">G23 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J23" s="19" t="str">
+        <f t="shared" ref="J23" ca="1" si="18">IF(TODAY()&gt;H23, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K23" s="19" t="str">
+        <f t="shared" ref="K23" si="19">IF(F133&gt;=E133,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="A24" s="28">
+        <v>18879</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="25">
+        <v>12254</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G24" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" ref="H24" si="20">G24 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="19" t="str">
+        <f t="shared" ref="J24" ca="1" si="21">IF(TODAY()&gt;H24, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K24" s="19" t="str">
+        <f t="shared" ref="K24" si="22">IF(F134&gt;=E134,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="A25" s="28">
+        <v>18883</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="25">
+        <v>12255</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G25" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" ref="H25" si="23">G25 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="19" t="str">
+        <f t="shared" ref="J25" ca="1" si="24">IF(TODAY()&gt;H25, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K25" s="19" t="str">
+        <f t="shared" ref="K25" si="25">IF(F135&gt;=E135,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="A26" s="28">
+        <v>18884</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="25">
+        <v>12256</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G26" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" ref="H26" si="26">G26 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J26" s="19" t="str">
+        <f t="shared" ref="J26" ca="1" si="27">IF(TODAY()&gt;H26, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K26" s="19" t="str">
+        <f t="shared" ref="K26" si="28">IF(F136&gt;=E136,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="A27" s="28">
+        <v>18888</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="25">
+        <v>12257</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F27" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G27" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" ref="H27" si="29">G27 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J27" s="19" t="str">
+        <f t="shared" ref="J27" ca="1" si="30">IF(TODAY()&gt;H27, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K27" s="19" t="str">
+        <f t="shared" ref="K27" si="31">IF(F137&gt;=E137,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="A28" s="28">
+        <v>18889</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G28" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" ref="H28" si="32">G28 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" s="19" t="str">
+        <f t="shared" ref="J28" ca="1" si="33">IF(TODAY()&gt;H28, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K28" s="19" t="str">
+        <f t="shared" ref="K28" si="34">IF(F138&gt;=E138,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="28">
+        <v>18891</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G29" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" ref="H29" si="35">G29 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" s="19" t="str">
+        <f t="shared" ref="J29" ca="1" si="36">IF(TODAY()&gt;H29, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K29" s="19" t="str">
+        <f t="shared" ref="K29" si="37">IF(F139&gt;=E139,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="28">
+        <v>17372</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F30" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G30" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" ref="H30" si="38">G30 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" s="19" t="str">
+        <f t="shared" ref="J30" ca="1" si="39">IF(TODAY()&gt;H30, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K30" s="19" t="str">
+        <f t="shared" ref="K30" si="40">IF(F140&gt;=E140,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" s="28">
+        <v>17372</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="34">
+        <f t="shared" ca="1" si="4"/>
+        <v>46065</v>
+      </c>
+      <c r="G31" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" ref="H31" si="41">G31 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" s="19" t="str">
+        <f t="shared" ref="J31" ca="1" si="42">IF(TODAY()&gt;H31, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K31" s="19" t="str">
+        <f t="shared" ref="K31" si="43">IF(F141&gt;=E141,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="A32" s="28">
+        <v>18897</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F32" s="34">
+        <f ca="1">TODAY()</f>
+        <v>46065</v>
+      </c>
+      <c r="G32" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H32" s="34">
+        <f>G32 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="19" t="str">
+        <f ca="1">IF(TODAY()&gt;H32, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K32" s="19" t="str">
+        <f>IF(F142&gt;=E142,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="A33" s="28">
+        <v>18901</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="34">
+        <f ca="1">TODAY()</f>
+        <v>46065</v>
+      </c>
+      <c r="G33" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H33" s="34">
+        <f>G33 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="19" t="str">
+        <f ca="1">IF(TODAY()&gt;H33, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K33" s="19" t="str">
+        <f>IF(F143&gt;=E143,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="A34" s="28">
+        <v>18900</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="25">
+        <v>12264</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="34">
+        <f ca="1">TODAY()</f>
+        <v>46065</v>
+      </c>
+      <c r="G34" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H34" s="34">
+        <f>G34 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="19" t="str">
+        <f ca="1">IF(TODAY()&gt;H34, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K34" s="19" t="str">
+        <f>IF(F144&gt;=E144,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="A35" s="28">
+        <v>18903</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F35" s="34">
+        <f ca="1">TODAY()</f>
+        <v>46065</v>
+      </c>
+      <c r="G35" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H35" s="34">
+        <f>G35 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="19" t="str">
+        <f ca="1">IF(TODAY()&gt;H35, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K35" s="19" t="str">
+        <f>IF(F145&gt;=E145,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="A36" s="28">
+        <v>18905</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="25">
+        <v>12266</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" s="34">
+        <f ca="1">TODAY()</f>
+        <v>46065</v>
+      </c>
+      <c r="G36" s="34">
+        <v>46051</v>
+      </c>
+      <c r="H36" s="34">
+        <f>G36 + 10</f>
+        <v>46061</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="19" t="str">
+        <f ca="1">IF(TODAY()&gt;H36, "ACTION NEEDED", "NO ACTION NEEDED")</f>
+        <v>ACTION NEEDED</v>
+      </c>
+      <c r="K36" s="19" t="str">
+        <f>IF(F146&gt;=E146,"On Time","Order Still Needed?")</f>
+        <v>On Time</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -10125,110 +11131,172 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{3CFC4BDB-D1B1-754E-9D2D-4AF183D21447}"/>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="containsText" dxfId="22" priority="12" operator="containsText" text="NO ACTION NEEDED">
+  <conditionalFormatting sqref="J1:J36">
+    <cfRule type="containsText" dxfId="47" priority="109" operator="containsText" text="NO ACTION NEEDED">
       <formula>NOT(ISERROR(SEARCH("NO ACTION NEEDED",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="ACTION NEEDED">
+    <cfRule type="containsText" dxfId="46" priority="110" operator="containsText" text="ACTION NEEDED">
       <formula>NOT(ISERROR(SEARCH("ACTION NEEDED",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J6">
-    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="NO ACTION NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NO ACTION NEEDED",J2)))</formula>
+  <conditionalFormatting sqref="J2:K23">
+    <cfRule type="cellIs" dxfId="45" priority="70" operator="equal">
+      <formula>"Maria"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="ACTION NEEDED">
-      <formula>NOT(ISERROR(SEARCH("ACTION NEEDED",J2)))</formula>
+    <cfRule type="cellIs" dxfId="44" priority="69" operator="equal">
+      <formula>"Patricia"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K6">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+  <conditionalFormatting sqref="K1:K36">
+    <cfRule type="containsText" dxfId="43" priority="108" operator="containsText" text="On Time">
+      <formula>NOT(ISERROR(SEARCH("On Time",K1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="107" operator="containsText" text="Order Still Needed">
+      <formula>NOT(ISERROR(SEARCH("Order Still Needed",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L5">
+    <cfRule type="containsText" dxfId="41" priority="60" operator="containsText" text="RETURNS">
+      <formula>NOT(ISERROR(SEARCH("RETURNS",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="62" operator="containsText" text="Maria">
+      <formula>NOT(ISERROR(SEARCH("Maria",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="Patricia">
+      <formula>NOT(ISERROR(SEARCH("Patricia",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L15">
+    <cfRule type="containsText" dxfId="38" priority="33" operator="containsText" text="RETURNS">
+      <formula>NOT(ISERROR(SEARCH("RETURNS",L7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="Patricia">
+      <formula>NOT(ISERROR(SEARCH("Patricia",L7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="35" operator="containsText" text="Maria">
+      <formula>NOT(ISERROR(SEARCH("Maria",L7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:L19">
+    <cfRule type="containsText" dxfId="35" priority="28" operator="containsText" text="Patricia">
+      <formula>NOT(ISERROR(SEARCH("Patricia",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="Maria">
+      <formula>NOT(ISERROR(SEARCH("Maria",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="RETURNS">
+      <formula>NOT(ISERROR(SEARCH("RETURNS",L17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N5 C3:C5">
+    <cfRule type="duplicateValues" dxfId="32" priority="216"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6 C6">
+    <cfRule type="duplicateValues" dxfId="31" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:K24">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"Patricia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>"Maria"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Order Still Needed">
-      <formula>NOT(ISERROR(SEARCH("Order Still Needed",K1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="On Time">
-      <formula>NOT(ISERROR(SEARCH("On Time",K1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K6">
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="Order Still Needed">
-      <formula>NOT(ISERROR(SEARCH("Order Still Needed",K2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="On Time">
-      <formula>NOT(ISERROR(SEARCH("On Time",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="RETURNS">
-      <formula>NOT(ISERROR(SEARCH("RETURNS",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Patricia">
-      <formula>NOT(ISERROR(SEARCH("Patricia",L1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="Maria">
-      <formula>NOT(ISERROR(SEARCH("Maria",L1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N6 C3:C6">
-    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7 C7">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J8">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="NO ACTION NEEDED">
-      <formula>NOT(ISERROR(SEARCH("NO ACTION NEEDED",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="ACTION NEEDED">
-      <formula>NOT(ISERROR(SEARCH("ACTION NEEDED",J7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:K7">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="J25:K25">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>"Patricia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>"Maria"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K8">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Order Still Needed">
-      <formula>NOT(ISERROR(SEARCH("Order Still Needed",K7)))</formula>
+  <conditionalFormatting sqref="J26:K26">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+      <formula>"Patricia"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="On Time">
-      <formula>NOT(ISERROR(SEARCH("On Time",K7)))</formula>
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+      <formula>"Maria"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:K8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"Patricia"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:K28">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:K29">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:K30">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:K31">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:K32">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:K33">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:K34">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:K35">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Maria"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:K36">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Patricia"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Maria"</formula>
     </cfRule>
   </conditionalFormatting>
